--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2416780.861144242</v>
+        <v>2531654.331992008</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526077</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577128</v>
+        <v>612367.9462114754</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5665646.453395545</v>
+        <v>5988011.351578042</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +661,19 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>69.57079805412768</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>66.86379236488683</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -741,7 +743,7 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
-        <v>102.801558899868</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
         <v>103.6549143897921</v>
@@ -820,7 +822,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>60.06956913295723</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -832,10 +834,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +870,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>120.6474826483502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>104.1187005980912</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>146.5653248725136</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -1063,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -1108,7 +1110,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>51.78588021270358</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>187.3388165063449</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1135,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>0.2956717864458369</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>301.3412082450685</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>50.00965678565681</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1297,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1348,16 +1350,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>148.8838185767718</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>183.8505976126794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,16 +1378,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1427,13 +1429,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>24.3233863921513</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1525,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>39.95672492241964</v>
       </c>
       <c r="D13" t="n">
-        <v>160.9736354648264</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1591,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1625,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>72.08600523801886</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>98.15366458399258</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,13 +1821,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>104.0608210936003</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2002,25 +2004,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>96.44420510686429</v>
+        <v>7.208108397806986</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2059,13 +2061,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2090,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2245,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>37.59268195560514</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2476,25 +2478,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>98.15366458399268</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>52.26458687415279</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2539,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2725,13 +2727,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,22 +2763,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>3.708114646811068</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>109.0591506971457</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>110.0500814925468</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>86.66428804999369</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3196,13 +3198,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3241,19 +3243,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>116.1570154064491</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>91.1551402069572</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3427,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>98.15366458399271</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3478,19 +3480,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>169.983518543731</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3509,19 +3511,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,19 +3556,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>121.8235736002275</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>62.42535855754992</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3724,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D41" t="n">
-        <v>356.321949202148</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3758,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3803,7 +3805,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3901,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>178.3527920890229</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>189.7321519076233</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3995,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>319.8102837428852</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4135,10 +4137,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>69.83767438078986</v>
+        <v>10.02877608965463</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4198,10 +4200,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1820.815201993657</v>
+        <v>563.0709252622232</v>
       </c>
       <c r="C2" t="n">
-        <v>1750.541668605649</v>
+        <v>136.1701952755233</v>
       </c>
       <c r="D2" t="n">
-        <v>1327.249047790649</v>
+        <v>116.9179785009276</v>
       </c>
       <c r="E2" t="n">
-        <v>901.2721079385067</v>
+        <v>94.98144268918924</v>
       </c>
       <c r="F2" t="n">
-        <v>476.1479261279069</v>
+        <v>73.89766491899354</v>
       </c>
       <c r="G2" t="n">
-        <v>71.80886371735554</v>
+        <v>73.59900654884623</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>73.59900654884623</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J2" t="n">
-        <v>399.5154512777223</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="K2" t="n">
-        <v>856.3013579804531</v>
+        <v>403.5871017449297</v>
       </c>
       <c r="L2" t="n">
-        <v>1313.087264683184</v>
+        <v>882.5260259873579</v>
       </c>
       <c r="M2" t="n">
-        <v>1728.043288159434</v>
+        <v>882.5260259873579</v>
       </c>
       <c r="N2" t="n">
-        <v>1728.043288159434</v>
+        <v>1361.464950229786</v>
       </c>
       <c r="O2" t="n">
-        <v>1728.043288159434</v>
+        <v>1361.464950229786</v>
       </c>
       <c r="P2" t="n">
-        <v>1728.043288159434</v>
+        <v>1361.464950229786</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1714.181193660505</v>
       </c>
       <c r="U2" t="n">
-        <v>1845.599623041337</v>
+        <v>1455.826284256917</v>
       </c>
       <c r="V2" t="n">
-        <v>1845.599623041337</v>
+        <v>1388.287100049961</v>
       </c>
       <c r="W2" t="n">
-        <v>1845.599623041337</v>
+        <v>991.8957503503077</v>
       </c>
       <c r="X2" t="n">
-        <v>1837.920028249488</v>
+        <v>580.1757515180549</v>
       </c>
       <c r="Y2" t="n">
-        <v>1836.623162244782</v>
+        <v>578.8788855133492</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>693.5426250668171</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>576.0367215843219</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250718</v>
+        <v>472.1967630996069</v>
       </c>
       <c r="E3" t="n">
-        <v>277.987687798009</v>
+        <v>367.4948293725441</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809131</v>
+        <v>273.8489990554482</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851715</v>
+        <v>179.7952272730523</v>
       </c>
       <c r="H3" t="n">
-        <v>36.91199246082674</v>
+        <v>126.4191340353619</v>
       </c>
       <c r="I3" t="n">
-        <v>36.91199246082674</v>
+        <v>133.8657769972737</v>
       </c>
       <c r="J3" t="n">
-        <v>36.91199246082674</v>
+        <v>133.8657769972737</v>
       </c>
       <c r="K3" t="n">
-        <v>36.91199246082674</v>
+        <v>133.8657769972737</v>
       </c>
       <c r="L3" t="n">
-        <v>493.6978991635576</v>
+        <v>612.8047012397019</v>
       </c>
       <c r="M3" t="n">
-        <v>950.4838058662885</v>
+        <v>895.2096060463122</v>
       </c>
       <c r="N3" t="n">
-        <v>1407.269712569019</v>
+        <v>1374.14853028874</v>
       </c>
       <c r="O3" t="n">
-        <v>1845.599623041337</v>
+        <v>1374.14853028874</v>
       </c>
       <c r="P3" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.087454531169</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.087454531169</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1853.782517177126</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1711.902581474804</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1527.134385394441</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1322.161246533707</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1125.639869366925</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>962.1625231335875</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>822.4696344868798</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1120.093114985063</v>
+        <v>775.677980649288</v>
       </c>
       <c r="C4" t="n">
-        <v>948.1205518639796</v>
+        <v>603.705417528204</v>
       </c>
       <c r="D4" t="n">
-        <v>784.8037789907503</v>
+        <v>543.0290850706714</v>
       </c>
       <c r="E4" t="n">
-        <v>618.5955731436038</v>
+        <v>376.8208792235249</v>
       </c>
       <c r="F4" t="n">
-        <v>446.7337989181643</v>
+        <v>204.9591049980853</v>
       </c>
       <c r="G4" t="n">
-        <v>280.4768292123964</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082674</v>
+        <v>96.19346351647545</v>
       </c>
       <c r="K4" t="n">
-        <v>36.91199246082674</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>303.8948463526241</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>695.080641322875</v>
+        <v>784.5877828974096</v>
       </c>
       <c r="N4" t="n">
-        <v>1072.572152198911</v>
+        <v>1162.079293773445</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878674</v>
+        <v>1517.507422453209</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1808.10663437511</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="R4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.464575560472</v>
+        <v>1764.971717135007</v>
       </c>
       <c r="T4" t="n">
-        <v>1432.125227786372</v>
+        <v>1764.971717135007</v>
       </c>
       <c r="U4" t="n">
-        <v>1432.125227786372</v>
+        <v>1764.971717135007</v>
       </c>
       <c r="V4" t="n">
-        <v>1432.125227786372</v>
+        <v>1483.260249743036</v>
       </c>
       <c r="W4" t="n">
-        <v>1432.125227786372</v>
+        <v>1208.407845915548</v>
       </c>
       <c r="X4" t="n">
-        <v>1432.125227786372</v>
+        <v>965.8439493613536</v>
       </c>
       <c r="Y4" t="n">
-        <v>1310.259083697129</v>
+        <v>965.8439493613536</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1820.815201993657</v>
+        <v>972.9074190595575</v>
       </c>
       <c r="C5" t="n">
-        <v>1715.64479734912</v>
+        <v>546.0066890728575</v>
       </c>
       <c r="D5" t="n">
-        <v>1292.35217653412</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E5" t="n">
-        <v>866.3752366819779</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
-        <v>441.2510548713781</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>856.3013579804531</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>932.7282368344229</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>932.7282368344229</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N5" t="n">
-        <v>1389.514143537154</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.514143537154</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P5" t="n">
-        <v>1389.514143537154</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>1751.572604680641</v>
       </c>
       <c r="V5" t="n">
-        <v>1845.599623041337</v>
+        <v>1394.083189806891</v>
       </c>
       <c r="W5" t="n">
-        <v>1845.599623041337</v>
+        <v>997.6918401072378</v>
       </c>
       <c r="X5" t="n">
-        <v>1837.920028249488</v>
+        <v>990.0122453153891</v>
       </c>
       <c r="Y5" t="n">
-        <v>1836.623162244782</v>
+        <v>988.7153793106835</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273854</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.35863542273854</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>44.35863542273854</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L6" t="n">
-        <v>501.1445421254694</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M6" t="n">
-        <v>850.0084995511718</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N6" t="n">
-        <v>1306.794406253903</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O6" t="n">
-        <v>1763.580312956634</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>1763.580312956634</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956634</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>443.7936020856257</v>
+        <v>961.4711417263379</v>
       </c>
       <c r="C7" t="n">
-        <v>443.7936020856257</v>
+        <v>789.4985786052539</v>
       </c>
       <c r="D7" t="n">
-        <v>280.4768292123964</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="E7" t="n">
-        <v>280.4768292123964</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>280.4768292123964</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>280.4768292123964</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>263.4395936666639</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>618.1289149610848</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1009.314709931336</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1386.806220807371</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1742.234349487134</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1742.234349487134</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>1628.425962247645</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1385.086614473545</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1104.902165973849</v>
+        <v>1712.089273982762</v>
       </c>
       <c r="V7" t="n">
-        <v>823.1906985818782</v>
+        <v>1430.377806590791</v>
       </c>
       <c r="W7" t="n">
-        <v>823.1906985818782</v>
+        <v>1430.377806590791</v>
       </c>
       <c r="X7" t="n">
-        <v>823.1906985818782</v>
+        <v>1187.813910036596</v>
       </c>
       <c r="Y7" t="n">
-        <v>633.9595707976914</v>
+        <v>961.4711417263379</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>859.1491609566976</v>
+        <v>1270.775797585523</v>
       </c>
       <c r="C8" t="n">
-        <v>432.2484309699978</v>
+        <v>1247.915471639227</v>
       </c>
       <c r="D8" t="n">
-        <v>412.9962141954022</v>
+        <v>1228.663254864631</v>
       </c>
       <c r="E8" t="n">
-        <v>391.0596783836638</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F8" t="n">
-        <v>369.9759006134681</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G8" t="n">
-        <v>369.6772422433207</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>71.80886371735554</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>358.3859952497895</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M8" t="n">
-        <v>358.3859952497895</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N8" t="n">
-        <v>358.3859952497895</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O8" t="n">
-        <v>815.1719019525203</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>1271.957808655251</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1741.232328914477</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>1741.232328914477</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V8" t="n">
-        <v>1741.232328914477</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W8" t="n">
-        <v>1741.232328914477</v>
+        <v>1699.600622673607</v>
       </c>
       <c r="X8" t="n">
-        <v>1329.512330082224</v>
+        <v>1691.921027881758</v>
       </c>
       <c r="Y8" t="n">
-        <v>1278.997525248228</v>
+        <v>1690.624161877053</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273858</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="J9" t="n">
-        <v>316.0561247023297</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="K9" t="n">
-        <v>772.8420314050605</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="L9" t="n">
-        <v>772.8420314050605</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="M9" t="n">
-        <v>772.8420314050605</v>
+        <v>490.8953374243588</v>
       </c>
       <c r="N9" t="n">
-        <v>850.0084995511716</v>
+        <v>1041.560872408797</v>
       </c>
       <c r="O9" t="n">
-        <v>1306.794406253902</v>
+        <v>1592.226407393235</v>
       </c>
       <c r="P9" t="n">
-        <v>1306.794406253902</v>
+        <v>2142.891942377673</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956633</v>
+        <v>2142.891942377673</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624.31116655892</v>
+        <v>626.2438307690477</v>
       </c>
       <c r="C10" t="n">
-        <v>452.338603437836</v>
+        <v>454.2712676479637</v>
       </c>
       <c r="D10" t="n">
-        <v>452.338603437836</v>
+        <v>454.2712676479637</v>
       </c>
       <c r="E10" t="n">
-        <v>452.338603437836</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F10" t="n">
-        <v>280.4768292123964</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G10" t="n">
-        <v>280.4768292123964</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>263.4395936666639</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>618.1289149610848</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1009.314709931336</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1386.806220807371</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1742.234349487134</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1798.56100972851</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1555.22166195441</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1275.037213454714</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1275.037213454714</v>
+        <v>1333.826099862795</v>
       </c>
       <c r="W10" t="n">
-        <v>1000.184809627227</v>
+        <v>1058.973696035308</v>
       </c>
       <c r="X10" t="n">
-        <v>1000.184809627227</v>
+        <v>816.4097994811134</v>
       </c>
       <c r="Y10" t="n">
-        <v>814.4771352709856</v>
+        <v>816.4097994811134</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1382.698653631828</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>955.7979236451279</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>532.5053028301281</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>532.5053028301281</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>107.3811210195283</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>107.3811210195283</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>217.7264077231202</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>933.2347156986193</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L11" t="n">
-        <v>1830.227306515739</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M11" t="n">
-        <v>2727.219897332858</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N11" t="n">
-        <v>3624.212488149977</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O11" t="n">
-        <v>3624.212488149977</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P11" t="n">
-        <v>3624.212488149977</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q11" t="n">
-        <v>3624.212488149977</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3519.845194023117</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3298.91962306775</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3040.564713664163</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3015.995636500374</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2619.60428680072</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2207.884287968468</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>1802.547017923358</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.48424976299954</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>72.48424976299954</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K12" t="n">
-        <v>72.48424976299954</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L12" t="n">
-        <v>438.0145025789077</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M12" t="n">
-        <v>1335.007093396027</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="N12" t="n">
-        <v>1335.007093396027</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="O12" t="n">
-        <v>1335.007093396027</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P12" t="n">
-        <v>1335.007093396027</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q12" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>883.2070998158521</v>
+        <v>615.9842888225141</v>
       </c>
       <c r="C13" t="n">
-        <v>883.2070998158521</v>
+        <v>575.6239606180499</v>
       </c>
       <c r="D13" t="n">
-        <v>720.6074680331991</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="E13" t="n">
-        <v>554.3992621860526</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F13" t="n">
-        <v>382.537487960613</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G13" t="n">
-        <v>216.2805182548452</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H13" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2205.858663863301</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2205.858663863301</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>1962.519316089201</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U13" t="n">
-        <v>1682.334867589505</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V13" t="n">
-        <v>1400.623400197534</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W13" t="n">
-        <v>1125.770996370047</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X13" t="n">
-        <v>883.2070998158521</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="Y13" t="n">
-        <v>883.2070998158521</v>
+        <v>806.1502575345799</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2475.986163163958</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>2049.085433177258</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>1625.792812362258</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1199.815872510116</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>774.6916906995161</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>370.3526282889647</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>72.48424976299954</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>1150.596016555394</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1150.596016555394</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2047.588607372513</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>2944.581198189633</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O14" t="n">
-        <v>3624.212488149977</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P14" t="n">
-        <v>3624.212488149977</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q14" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3624.212488149977</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3624.212488149977</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3365.85757874639</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3293.04343204132</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3293.04343204132</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>2881.323433209067</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2475.986163163958</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>72.48424976299954</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K15" t="n">
-        <v>72.48424976299954</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L15" t="n">
-        <v>700.8286864422321</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M15" t="n">
-        <v>700.8286864422321</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N15" t="n">
-        <v>700.8286864422321</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O15" t="n">
-        <v>700.8286864422321</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P15" t="n">
-        <v>1417.02640348073</v>
+        <v>1680.682846292257</v>
       </c>
       <c r="Q15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>343.6019286254902</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="C16" t="n">
-        <v>171.6293655044062</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D16" t="n">
-        <v>171.6293655044062</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E16" t="n">
-        <v>171.6293655044062</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F16" t="n">
-        <v>72.48424976299954</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G16" t="n">
-        <v>72.48424976299954</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>72.48424976299954</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2082.762229695263</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>1839.422881921163</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>1559.238433421467</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V16" t="n">
-        <v>1277.526966029496</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W16" t="n">
-        <v>1002.674562202009</v>
+        <v>1482.417937673434</v>
       </c>
       <c r="X16" t="n">
-        <v>760.1106656478138</v>
+        <v>1239.85404111924</v>
       </c>
       <c r="Y16" t="n">
-        <v>533.7678973375558</v>
+        <v>1013.511272808982</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5501,19 +5503,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
@@ -5531,19 +5533,19 @@
         <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291426</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5555,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5592,22 +5594,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.79262694784</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="N18" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>446.1370507523521</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="C19" t="n">
-        <v>274.1644876312681</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D19" t="n">
-        <v>274.1644876312681</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E19" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2185.297351822124</v>
+        <v>2228.396209932588</v>
       </c>
       <c r="T19" t="n">
-        <v>1941.958004048024</v>
+        <v>1985.056862158488</v>
       </c>
       <c r="U19" t="n">
-        <v>1661.773555548329</v>
+        <v>1704.872413658792</v>
       </c>
       <c r="V19" t="n">
-        <v>1380.062088156358</v>
+        <v>1704.872413658792</v>
       </c>
       <c r="W19" t="n">
-        <v>1105.20968432887</v>
+        <v>1430.020009831305</v>
       </c>
       <c r="X19" t="n">
-        <v>862.6457877746757</v>
+        <v>1430.020009831305</v>
       </c>
       <c r="Y19" t="n">
-        <v>636.3030194644177</v>
+        <v>1203.677241521047</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
         <v>839.4070255988738</v>
@@ -5750,52 +5752,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O20" t="n">
-        <v>4935.721337874071</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>390.8583291475138</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1446.844867123559</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1446.844867123559</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O21" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>446.1370507523521</v>
+        <v>888.2776948471594</v>
       </c>
       <c r="C22" t="n">
-        <v>274.1644876312681</v>
+        <v>716.3051317260754</v>
       </c>
       <c r="D22" t="n">
-        <v>274.1644876312681</v>
+        <v>716.3051317260754</v>
       </c>
       <c r="E22" t="n">
-        <v>274.1644876312681</v>
+        <v>550.0969258789289</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2185.297351822124</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>1941.958004048024</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>1661.773555548329</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V22" t="n">
-        <v>1380.062088156358</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="W22" t="n">
-        <v>1105.20968432887</v>
+        <v>1547.350328423678</v>
       </c>
       <c r="X22" t="n">
-        <v>862.6457877746757</v>
+        <v>1304.786431869483</v>
       </c>
       <c r="Y22" t="n">
-        <v>636.3030194644177</v>
+        <v>1078.443663559225</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -5990,34 +5992,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>5021.974329743787</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6075,10 +6077,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>373.4203922683193</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="C25" t="n">
-        <v>201.4478291472353</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D25" t="n">
-        <v>201.4478291472353</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E25" t="n">
-        <v>201.4478291472353</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F25" t="n">
-        <v>201.4478291472353</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6172,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2229.923228824863</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>1986.583881050763</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>1986.583881050763</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>1704.872413658792</v>
       </c>
       <c r="W25" t="n">
-        <v>1032.493025844838</v>
+        <v>1430.020009831305</v>
       </c>
       <c r="X25" t="n">
-        <v>789.9291292906429</v>
+        <v>1430.020009831305</v>
       </c>
       <c r="Y25" t="n">
-        <v>563.5863609803849</v>
+        <v>1203.677241521047</v>
       </c>
     </row>
     <row r="26">
@@ -6242,10 +6244,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6312,13 +6314,13 @@
         <v>939.1015214887346</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N27" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>756.1415250913442</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>584.1689619702602</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D28" t="n">
-        <v>584.1689619702602</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E28" t="n">
-        <v>417.9607561231137</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F28" t="n">
-        <v>246.0989818976742</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6409,25 +6411,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T28" t="n">
-        <v>2061.796509674951</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U28" t="n">
-        <v>1781.612061175255</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V28" t="n">
-        <v>1499.900593783284</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="W28" t="n">
-        <v>1225.048189955797</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="X28" t="n">
-        <v>982.4842934016021</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y28" t="n">
-        <v>756.1415250913442</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6543,13 +6545,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
         <v>1021.509065974867</v>
@@ -6643,22 +6645,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U31" t="n">
-        <v>2002.531292319261</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.81982492729</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="W31" t="n">
-        <v>1445.967421099803</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="X31" t="n">
         <v>1358.427736200819</v>
@@ -6701,22 +6703,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>786.1869982294937</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O32" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P32" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6786,16 +6788,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1021.509065974867</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="N33" t="n">
-        <v>1021.509065974867</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>697.8532300916962</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="C34" t="n">
-        <v>697.8532300916962</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D34" t="n">
-        <v>534.5364572184669</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E34" t="n">
-        <v>368.3282513713204</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F34" t="n">
-        <v>368.3282513713204</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G34" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
         <v>202.0712816655526</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1589.056897064296</v>
+        <v>1704.872413658792</v>
       </c>
       <c r="V34" t="n">
-        <v>1307.345429672325</v>
+        <v>1704.872413658792</v>
       </c>
       <c r="W34" t="n">
-        <v>1032.493025844838</v>
+        <v>1430.020009831305</v>
       </c>
       <c r="X34" t="n">
-        <v>789.9291292906429</v>
+        <v>1430.020009831305</v>
       </c>
       <c r="Y34" t="n">
-        <v>697.8532300916962</v>
+        <v>1203.677241521047</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6929,43 +6931,43 @@
         <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>188.2350251358952</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>903.7433331113942</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1833.368380730671</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2837.654482149729</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>3813.90554063643</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4659.050190787242</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787242</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291425</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -6977,7 +6979,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7005,7 +7007,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
@@ -7014,22 +7016,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>1210.799010768326</v>
+        <v>138.8060889717951</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.799010768326</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>373.4203922683193</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C37" t="n">
-        <v>201.4478291472353</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D37" t="n">
-        <v>201.4478291472353</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E37" t="n">
-        <v>201.4478291472353</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="V37" t="n">
-        <v>1307.345429672325</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.493025844838</v>
+        <v>4379.770257896148</v>
       </c>
       <c r="X37" t="n">
-        <v>789.9291292906429</v>
+        <v>4208.069734114601</v>
       </c>
       <c r="Y37" t="n">
-        <v>563.5863609803849</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="38">
@@ -7148,73 +7150,73 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P38" t="n">
-        <v>4573.117879057176</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q38" t="n">
-        <v>5029.203358561359</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7242,7 +7244,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
@@ -7263,13 +7265,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>102.3027134058285</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O39" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>440.5322462326803</v>
+        <v>985.454412532011</v>
       </c>
       <c r="C40" t="n">
-        <v>268.5596831115964</v>
+        <v>813.481849410927</v>
       </c>
       <c r="D40" t="n">
-        <v>268.5596831115964</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E40" t="n">
-        <v>268.5596831115964</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F40" t="n">
-        <v>268.5596831115964</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.493025844838</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>789.9291292906429</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y40" t="n">
-        <v>563.5863609803849</v>
+        <v>985.454412532011</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1985.713973172509</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>1985.713973172509</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1625.792812362258</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1199.815872510116</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>774.6916906995161</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>370.3526282889647</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>72.48424976299953</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>72.48424976299953</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>359.5929013125332</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1256.585492129652</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2153.578082946771</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>3050.57067376389</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>3050.57067376389</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P41" t="n">
-        <v>3050.57067376389</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q41" t="n">
-        <v>3506.656153268073</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3624.212488149976</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3403.286917194609</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3144.932007791022</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2787.442592917271</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2391.051243217618</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>2391.051243217618</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>1985.713973172509</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>79.93089272491136</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>351.6283820045024</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>942.113308572842</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>1778.912116655748</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>1778.912116655748</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N42" t="n">
-        <v>1778.912116655748</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O42" t="n">
-        <v>1778.912116655748</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>576.9219884369978</v>
+        <v>875.4305977324519</v>
       </c>
       <c r="C43" t="n">
-        <v>404.9494253159138</v>
+        <v>703.4580346113679</v>
       </c>
       <c r="D43" t="n">
-        <v>404.9494253159138</v>
+        <v>540.1412617381386</v>
       </c>
       <c r="E43" t="n">
-        <v>238.7412194687674</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F43" t="n">
-        <v>238.7412194687674</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G43" t="n">
-        <v>72.48424976299953</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H43" t="n">
-        <v>72.48424976299953</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>2072.74294173267</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U43" t="n">
-        <v>1792.558493232974</v>
+        <v>2091.067102528428</v>
       </c>
       <c r="V43" t="n">
-        <v>1510.847025841003</v>
+        <v>1809.355635136457</v>
       </c>
       <c r="W43" t="n">
-        <v>1235.994622013516</v>
+        <v>1534.50323130897</v>
       </c>
       <c r="X43" t="n">
-        <v>993.4307254593214</v>
+        <v>1291.939334754775</v>
       </c>
       <c r="Y43" t="n">
-        <v>767.0879571490634</v>
+        <v>1065.596566444518</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2475.986163163958</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2049.085433177258</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1625.792812362258</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1199.815872510116</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>774.6916906995161</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>370.3526282889647</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>72.48424976299953</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>72.48424976299953</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>72.48424976299953</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L44" t="n">
-        <v>159.2470423250955</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M44" t="n">
-        <v>1056.239633142215</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N44" t="n">
-        <v>1953.232223959334</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O44" t="n">
-        <v>2798.376874110146</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P44" t="n">
-        <v>3506.656153268073</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q44" t="n">
-        <v>3506.656153268073</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3624.212488149976</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3624.212488149976</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3624.212488149976</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3624.212488149976</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3624.212488149976</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3301.171797500597</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2895.834527455488</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>72.48424976299953</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>72.48424976299953</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K45" t="n">
-        <v>72.48424976299953</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L45" t="n">
-        <v>909.2830578459057</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M45" t="n">
-        <v>909.2830578459057</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N45" t="n">
-        <v>991.6906023320378</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>982.6436409708081</v>
+        <v>616.7597400424195</v>
       </c>
       <c r="C46" t="n">
-        <v>810.671077849724</v>
+        <v>616.7597400424195</v>
       </c>
       <c r="D46" t="n">
-        <v>647.3543049764947</v>
+        <v>616.7597400424195</v>
       </c>
       <c r="E46" t="n">
-        <v>481.1460991293483</v>
+        <v>450.551534195273</v>
       </c>
       <c r="F46" t="n">
-        <v>309.2843249039087</v>
+        <v>278.6897599698334</v>
       </c>
       <c r="G46" t="n">
-        <v>143.0273551981408</v>
+        <v>112.4327902640655</v>
       </c>
       <c r="H46" t="n">
-        <v>143.0273551981408</v>
+        <v>112.4327902640655</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2252.897277176128</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>2009.557929402028</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U46" t="n">
-        <v>1729.373480902332</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V46" t="n">
-        <v>1447.662013510361</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W46" t="n">
-        <v>1172.809609682874</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="X46" t="n">
-        <v>1172.809609682874</v>
+        <v>1033.268477064743</v>
       </c>
       <c r="Y46" t="n">
-        <v>1172.809609682874</v>
+        <v>806.9257087544852</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>404.3352739792661</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929572</v>
+        <v>522.0887335865908</v>
       </c>
       <c r="M2" t="n">
-        <v>456.5787613602907</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.056313988414</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
@@ -7997,7 +7999,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
@@ -8061,25 +8063,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>506.2917778681975</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>308.3542601149646</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>505.1197193675096</v>
       </c>
       <c r="O3" t="n">
-        <v>465.9293750477953</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>505.5475323587966</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,16 +8136,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>291.5984102914562</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281028</v>
+        <v>130.8354367406538</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8216,28 +8218,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1645065551435</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>115.5109099618853</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>86.31943126580316</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,25 +8300,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>483.9149924745637</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>375.4846162958657</v>
+        <v>173.8486821944324</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8389,10 +8391,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>129.0289299912522</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>363.0332573709691</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>300.4545145390017</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705655</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,28 +8531,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>91.000894230086</v>
       </c>
       <c r="N9" t="n">
-        <v>99.28895563385584</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8608,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
         <v>249.7804132464869</v>
@@ -8626,10 +8628,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7901678844537</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>176.1292099503549</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>944.3651644701171</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>943.4843849369259</v>
+        <v>765.1769988726438</v>
       </c>
       <c r="N11" t="n">
-        <v>943.3327448719402</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
@@ -8772,22 +8774,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>391.737564306056</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>929.1499025498222</v>
+        <v>861.2183961915432</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8930,22 +8932,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>943.4843849369261</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>943.3327448719403</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>723.8872118412205</v>
+        <v>882.2851839951743</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9003,13 +9005,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>657.2064368952726</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
@@ -9024,7 +9026,7 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>255.3808743436059</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9179,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>218.8019602116006</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>217.3512730059682</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9240,7 +9242,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
@@ -9249,16 +9251,16 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>281.3706244104145</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>728.607001161029</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>218.8019602116006</v>
+        <v>728.3675687028222</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9479,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>39.5434972820015</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9638,7 +9640,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>129.135014084331</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,13 +9725,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>464.8736204150517</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,7 +9962,7 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>281.3706244104145</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
@@ -9969,7 +9971,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>105.9095497086638</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10193,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
@@ -10200,7 +10202,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>353.3848726586917</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O30" t="n">
         <v>921.6378271075471</v>
@@ -10349,7 +10351,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>360.2906876703342</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10367,7 +10369,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>98.60750039798609</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10434,19 +10436,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>951.5880457335786</v>
+        <v>280.9020403556215</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.2202743644417</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10592,7 +10594,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,25 +10664,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>59.38718324550895</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>728.607001161029</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>105.5494758988752</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>121.8329647736514</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10911,16 +10913,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O39" t="n">
-        <v>657.8632399032651</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>325.7733397337322</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>944.365164470117</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>943.4843849369258</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>943.3327448719401</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11133,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P42" t="n">
-        <v>42.21574383418027</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>125.9512268387805</v>
+        <v>705.1634862205228</v>
       </c>
       <c r="M44" t="n">
-        <v>943.4843849369258</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>943.3327448719401</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11315,10 +11317,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
@@ -11379,16 +11381,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>742.2139937908412</v>
       </c>
       <c r="N45" t="n">
-        <v>104.5829721389276</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -23264,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>329.5911343328617</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>130.2961125674535</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7099696796705643</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>281.8285154869941</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>71.9894918991926</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>168.0430586956118</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>71.9894918991922</v>
+        <v>161.2255886082495</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>132.55047452758</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>66.4407354247175</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24414,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>116.1691101319037</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,22 +24651,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1978396495479</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>169.8352020209057</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>168.8442712255046</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>153.4739695386592</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -25084,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>161.2255886082497</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>132.9242004201982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>71.98949189919247</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>70.15473904492188</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.44073542471745</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>99.25824658694708</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>62.73774540470168</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>62.55316220733607</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>87.65045210707541</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>87.79251510104496</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>28.93320819633692</v>
+        <v>88.74210648747216</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>504204.9820178069</v>
+        <v>505352.3912437892</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>504204.9820178069</v>
+        <v>509067.4505925366</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>504204.9820178069</v>
+        <v>509067.4505925366</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>414407.3321580389</v>
+        <v>521204.8894998782</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>414407.332158039</v>
+        <v>521204.8894998781</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>521204.8894998781</v>
+        <v>521204.8894998782</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>521204.8894998781</v>
+        <v>521204.8894998782</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>521204.889499878</v>
+        <v>521204.8894998781</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>521204.8894998782</v>
+        <v>521204.8894998781</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>521204.889499878</v>
+        <v>521204.8894998781</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>414407.3321580389</v>
+        <v>521204.8894998782</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>414407.3321580389</v>
+        <v>521204.8894998781</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>553320.5346106048</v>
+      </c>
+      <c r="C2" t="n">
+        <v>553320.534610605</v>
+      </c>
+      <c r="D2" t="n">
         <v>553320.5346106049</v>
       </c>
-      <c r="C2" t="n">
-        <v>553320.5346106049</v>
-      </c>
-      <c r="D2" t="n">
-        <v>553320.5346106046</v>
-      </c>
       <c r="E2" t="n">
-        <v>424545.0315558378</v>
+        <v>533928.8829805749</v>
       </c>
       <c r="F2" t="n">
-        <v>424545.0315558378</v>
+        <v>533928.8829805751</v>
       </c>
       <c r="G2" t="n">
-        <v>533928.8829805747</v>
+        <v>533928.8829805744</v>
       </c>
       <c r="H2" t="n">
-        <v>533928.8829805744</v>
+        <v>533928.8829805746</v>
       </c>
       <c r="I2" t="n">
         <v>533928.8829805749</v>
       </c>
       <c r="J2" t="n">
-        <v>533928.8829805746</v>
+        <v>533928.8829805749</v>
       </c>
       <c r="K2" t="n">
         <v>533928.8829805749</v>
@@ -26344,16 +26346,16 @@
         <v>533928.8829805749</v>
       </c>
       <c r="M2" t="n">
-        <v>533928.882980575</v>
+        <v>533928.8829805749</v>
       </c>
       <c r="N2" t="n">
+        <v>533928.8829805749</v>
+      </c>
+      <c r="O2" t="n">
         <v>533928.8829805747</v>
       </c>
-      <c r="O2" t="n">
-        <v>424545.031555838</v>
-      </c>
       <c r="P2" t="n">
-        <v>424545.0315558378</v>
+        <v>533928.8829805747</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361224</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096019</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701981</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091333</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199461.1094204221</v>
+        <v>195487.3209125818</v>
       </c>
       <c r="C4" t="n">
-        <v>199461.1094204221</v>
+        <v>182621.065515899</v>
       </c>
       <c r="D4" t="n">
-        <v>199461.1094204221</v>
+        <v>182621.0655158991</v>
       </c>
       <c r="E4" t="n">
-        <v>57519.56881304552</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="F4" t="n">
-        <v>57519.56881304552</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="G4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="H4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986367</v>
       </c>
       <c r="I4" t="n">
         <v>72380.62724986371</v>
@@ -26442,22 +26444,22 @@
         <v>72380.62724986373</v>
       </c>
       <c r="K4" t="n">
+        <v>72380.62724986373</v>
+      </c>
+      <c r="L4" t="n">
         <v>72380.62724986371</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>72380.62724986371</v>
+      </c>
+      <c r="N4" t="n">
+        <v>72380.62724986365</v>
+      </c>
+      <c r="O4" t="n">
         <v>72380.62724986373</v>
       </c>
-      <c r="M4" t="n">
-        <v>72380.6272498637</v>
-      </c>
-      <c r="N4" t="n">
-        <v>72380.6272498637</v>
-      </c>
-      <c r="O4" t="n">
-        <v>57519.56881304551</v>
-      </c>
       <c r="P4" t="n">
-        <v>57519.56881304551</v>
+        <v>72380.62724986371</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987965</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>137552.9903018339</v>
+        <v>132667.2948062705</v>
       </c>
       <c r="C6" t="n">
-        <v>292178.7109199545</v>
+        <v>279846.3843836656</v>
       </c>
       <c r="D6" t="n">
-        <v>292178.7109199542</v>
+        <v>303253.2180572777</v>
       </c>
       <c r="E6" t="n">
-        <v>179173.7649133108</v>
+        <v>168058.8369856409</v>
       </c>
       <c r="F6" t="n">
-        <v>311937.4329229126</v>
+        <v>383798.1935422817</v>
       </c>
       <c r="G6" t="n">
-        <v>281638.2734479716</v>
+        <v>383798.193542281</v>
       </c>
       <c r="H6" t="n">
-        <v>383798.193542281</v>
+        <v>383798.1935422813</v>
       </c>
       <c r="I6" t="n">
         <v>383798.1935422815</v>
       </c>
       <c r="J6" t="n">
-        <v>263075.6765995243</v>
+        <v>257220.9249619927</v>
       </c>
       <c r="K6" t="n">
-        <v>383798.1935422815</v>
+        <v>365151.5931852616</v>
       </c>
       <c r="L6" t="n">
         <v>383798.1935422815</v>
       </c>
       <c r="M6" t="n">
-        <v>272988.8334331483</v>
+        <v>203734.3220871138</v>
       </c>
       <c r="N6" t="n">
-        <v>383798.1935422814</v>
+        <v>383798.1935422816</v>
       </c>
       <c r="O6" t="n">
-        <v>311937.4329229128</v>
+        <v>383798.1935422813</v>
       </c>
       <c r="P6" t="n">
-        <v>311937.4329229126</v>
+        <v>383798.1935422813</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374942</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374943</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26820,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374941</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374941</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.4511219616262</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.65321627716</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353623</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.4511219616262</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771596</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.4511219616262</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.65321627716</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353623</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,19 +27381,19 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>353.0609246327052</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27430,19 +27432,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>287.0507283601262</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27540,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>101.6140360115398</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>103.4318579788052</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27618,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>318.5130220887416</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>109.2060354370383</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,10 +27785,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27828,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>225.5967238019952</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>36.74052412081045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -27913,13 +27915,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>91.08622795758805</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>351.2742405590017</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28017,10 +28019,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>130.0105341412796</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>40.22874301447601</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603342</v>
+        <v>368.5706731844568</v>
       </c>
       <c r="L2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="M2" t="n">
-        <v>419.1474984608589</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34717,7 +34719,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34772,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34781,25 +34783,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>285.2574796026366</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="O3" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>269.6796503957549</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.137166636617</v>
+        <v>108.2599968491679</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34936,28 +34938,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>77.19886752926243</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35018,25 +35020,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>352.3878357835378</v>
+        <v>150.7519016821045</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35109,10 +35111,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>104.4093672264672</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>324.7212149383462</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>67.90411371775802</v>
       </c>
       <c r="N9" t="n">
-        <v>77.94592742031416</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
         <v>228.8157587937749</v>
@@ -35346,10 +35348,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>104.4093672264672</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>146.7092504647684</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>906.0531220374942</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>906.0531220374942</v>
+        <v>727.745735973212</v>
       </c>
       <c r="N11" t="n">
-        <v>906.0531220374942</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>369.2224775918264</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>906.0531220374942</v>
+        <v>838.1216156792152</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>82.84778796434657</v>
@@ -35650,22 +35652,22 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>906.0531220374943</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374943</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>686.4962524851965</v>
+        <v>844.8942246391501</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>634.691350181043</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35744,7 +35746,7 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35899,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>181.2265984013693</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,16 +35971,16 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>707.2639729474873</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>181.2265984013693</v>
+        <v>690.7922068925909</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>17.02841056777194</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>94.1023641895345</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36682,7 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>258.2738438980865</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36689,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>69.78487510406572</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36920,7 +36922,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>332.04184444515</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O30" t="n">
         <v>898.4659373853249</v>
@@ -37069,7 +37071,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>324.5260868755249</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37087,7 +37089,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>62.48282579338804</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37154,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>928.4912652212506</v>
+        <v>257.8052598432935</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>86.8003148788552</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37312,7 +37314,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>36.87209653127939</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>707.2639729474873</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>722.7356646217162</v>
+        <v>69.78487510406583</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>86.80031487885498</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,16 +37633,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O39" t="n">
-        <v>634.6913501810429</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>290.0087389389229</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>906.0531220374941</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>906.0531220374941</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0531220374941</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P42" t="n">
-        <v>20.4449026293516</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>87.6391844061576</v>
+        <v>666.8514437878999</v>
       </c>
       <c r="M44" t="n">
-        <v>906.0531220374941</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>906.0531220374941</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38035,10 +38037,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38099,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>719.1172132785132</v>
       </c>
       <c r="N45" t="n">
-        <v>83.23994392538597</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2531654.331992008</v>
+        <v>2530957.670786918</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114754</v>
+        <v>612367.9462114765</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5988011.351578042</v>
+        <v>5988011.351578041</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -676,10 +676,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>262.8898682440549</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>66.86379236488683</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -822,16 +822,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>60.06956913295723</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>64.6413966332285</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -885,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>262.440962427819</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>146.5653248725136</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>143.2339338136101</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -1074,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>51.78588021270358</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1135,25 +1135,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>340.4010259964147</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>301.3412082450685</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>7.602798843930202</v>
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>148.8838185767718</v>
+        <v>213.8764542074653</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1359,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>422.631722686833</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068498</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924939</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>400.295671786446</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396531</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026567</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446587</v>
       </c>
     </row>
     <row r="12">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>188.2643090249451</v>
       </c>
       <c r="C13" t="n">
-        <v>39.95672492241964</v>
+        <v>170.2528374898733</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>98.15366458398657</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>168.4336970060566</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>240.9059542963591</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3826040146989</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>278.8943527180515</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>272.1038797892122</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.138257588653</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>224.0793406271555</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>422.631722686833</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068498</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924939</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>400.295671786446</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396361</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026567</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446587</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.2643090249451</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898733</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>161.6836051444971</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>170.1431564831853</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>240.9059542963591</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146989</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>278.8943527180515</v>
       </c>
       <c r="W16" t="n">
-        <v>104.0608210936003</v>
+        <v>272.1038797892122</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>174.898857551018</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>224.0793406271555</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>422.631722686833</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068498</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924939</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864473</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396361</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026567</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446587</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>188.2643090249451</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898733</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>170.1431564831853</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>7.208108397806986</v>
+        <v>96.44420510686248</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>240.9059542963591</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3826040146989</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180515</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>272.1038797892122</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.138257588653</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>224.0793406271555</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>422.631722686833</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068498</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924939</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864477</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396361</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026567</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446587</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>188.2643090249451</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>170.2528374898733</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>37.59268195560514</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>98.15366458399106</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>168.4336970060566</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>240.9059542963591</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146989</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180515</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>272.1038797892122</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>240.138257588653</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>224.0793406271555</v>
       </c>
     </row>
     <row r="23">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>188.2643090249451</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898733</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>98.1536645839911</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>52.26458687415279</v>
+        <v>168.4336970060566</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>240.9059542963591</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146989</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>278.8943527180515</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>272.1038797892122</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.138257588653</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>224.0793406271555</v>
       </c>
     </row>
     <row r="26">
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2772,13 +2772,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>109.0591506971457</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2955,7 +2955,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -2964,7 +2964,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3009,16 +3009,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>110.0500814925468</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>259.6476047285001</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3189,25 +3189,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3243,16 +3243,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>116.1570154064491</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>200.1143878900198</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3322,7 +3322,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095521</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>169.983518543731</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3511,19 +3511,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>62.42535855754992</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3720,16 +3720,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>206.9048608188591</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3903,13 +3903,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>189.7321519076233</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3985,7 +3985,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -4137,25 +4137,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>10.02877608965463</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>563.0709252622232</v>
+        <v>389.6789714239316</v>
       </c>
       <c r="C2" t="n">
-        <v>136.1701952755233</v>
+        <v>366.8186454776358</v>
       </c>
       <c r="D2" t="n">
-        <v>116.9179785009276</v>
+        <v>347.5664287030401</v>
       </c>
       <c r="E2" t="n">
-        <v>94.98144268918924</v>
+        <v>325.6298928913017</v>
       </c>
       <c r="F2" t="n">
-        <v>73.89766491899354</v>
+        <v>304.546115121106</v>
       </c>
       <c r="G2" t="n">
-        <v>73.59900654884623</v>
+        <v>304.2474567509587</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884623</v>
+        <v>38.70213529231734</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231734</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231744</v>
+        <v>401.3055941092128</v>
       </c>
       <c r="K2" t="n">
-        <v>403.5871017449297</v>
+        <v>880.24451835164</v>
       </c>
       <c r="L2" t="n">
-        <v>882.5260259873579</v>
+        <v>882.5260259873544</v>
       </c>
       <c r="M2" t="n">
-        <v>882.5260259873579</v>
+        <v>882.5260259873544</v>
       </c>
       <c r="N2" t="n">
-        <v>1361.464950229786</v>
+        <v>1361.464950229781</v>
       </c>
       <c r="O2" t="n">
-        <v>1361.464950229786</v>
+        <v>1361.464950229781</v>
       </c>
       <c r="P2" t="n">
-        <v>1361.464950229786</v>
+        <v>1361.464950229781</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.550429733969</v>
+        <v>1817.550429733964</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615867</v>
       </c>
       <c r="S2" t="n">
-        <v>1935.106764615872</v>
+        <v>1830.739470489007</v>
       </c>
       <c r="T2" t="n">
-        <v>1714.181193660505</v>
+        <v>1830.739470489007</v>
       </c>
       <c r="U2" t="n">
-        <v>1455.826284256917</v>
+        <v>1572.38456108542</v>
       </c>
       <c r="V2" t="n">
-        <v>1388.287100049961</v>
+        <v>1214.895146211669</v>
       </c>
       <c r="W2" t="n">
-        <v>991.8957503503077</v>
+        <v>818.5037965120159</v>
       </c>
       <c r="X2" t="n">
-        <v>580.1757515180549</v>
+        <v>406.7837976797632</v>
       </c>
       <c r="Y2" t="n">
-        <v>578.8788855133492</v>
+        <v>405.4869316750575</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>693.5426250668171</v>
+        <v>605.8256263237726</v>
       </c>
       <c r="C3" t="n">
-        <v>576.0367215843219</v>
+        <v>488.3197228412773</v>
       </c>
       <c r="D3" t="n">
-        <v>472.1967630996069</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>367.4948293725441</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>273.8489990554482</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>179.7952272730523</v>
+        <v>92.07822853000775</v>
       </c>
       <c r="H3" t="n">
-        <v>126.4191340353619</v>
+        <v>38.70213529231734</v>
       </c>
       <c r="I3" t="n">
-        <v>133.8657769972737</v>
+        <v>46.14877825422918</v>
       </c>
       <c r="J3" t="n">
-        <v>133.8657769972737</v>
+        <v>46.14877825422918</v>
       </c>
       <c r="K3" t="n">
-        <v>133.8657769972737</v>
+        <v>525.0877024966562</v>
       </c>
       <c r="L3" t="n">
-        <v>612.8047012397019</v>
+        <v>1004.026626739083</v>
       </c>
       <c r="M3" t="n">
-        <v>895.2096060463122</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="N3" t="n">
-        <v>1374.14853028874</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="O3" t="n">
-        <v>1374.14853028874</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.087454531169</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.087454531169</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1935.106764615872</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1853.782517177126</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1711.902581474804</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1527.134385394441</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1322.161246533707</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.639869366925</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>962.1625231335875</v>
+        <v>874.4455243905429</v>
       </c>
       <c r="Y3" t="n">
-        <v>822.4696344868798</v>
+        <v>734.7526357438353</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>775.677980649288</v>
+        <v>373.9914712866306</v>
       </c>
       <c r="C4" t="n">
-        <v>603.705417528204</v>
+        <v>202.0189081655466</v>
       </c>
       <c r="D4" t="n">
-        <v>543.0290850706714</v>
+        <v>38.70213529231734</v>
       </c>
       <c r="E4" t="n">
-        <v>376.8208792235249</v>
+        <v>38.70213529231734</v>
       </c>
       <c r="F4" t="n">
-        <v>204.9591049980853</v>
+        <v>38.70213529231734</v>
       </c>
       <c r="G4" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231734</v>
       </c>
       <c r="H4" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231734</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231734</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647545</v>
+        <v>96.19346351647536</v>
       </c>
       <c r="K4" t="n">
         <v>322.7210647223126</v>
@@ -4497,43 +4497,43 @@
         <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>784.5877828974096</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773445</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453209</v>
+        <v>1801.515820542783</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.10663437511</v>
+        <v>1808.106634375105</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615867</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615867</v>
       </c>
       <c r="S4" t="n">
-        <v>1764.971717135007</v>
+        <v>1935.106764615867</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.971717135007</v>
+        <v>1869.812424582303</v>
       </c>
       <c r="U4" t="n">
-        <v>1764.971717135007</v>
+        <v>1589.627976082607</v>
       </c>
       <c r="V4" t="n">
-        <v>1483.260249743036</v>
+        <v>1307.916508690636</v>
       </c>
       <c r="W4" t="n">
-        <v>1208.407845915548</v>
+        <v>1033.064104863149</v>
       </c>
       <c r="X4" t="n">
-        <v>965.8439493613536</v>
+        <v>790.5002083089541</v>
       </c>
       <c r="Y4" t="n">
-        <v>965.8439493613536</v>
+        <v>564.1574399986962</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>972.9074190595575</v>
+        <v>372.1612950161458</v>
       </c>
       <c r="C5" t="n">
-        <v>546.0066890728575</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D5" t="n">
-        <v>526.7544722982618</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E5" t="n">
-        <v>100.7775324461193</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>79.69375467592363</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>1508.432753835019</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="N5" t="n">
-        <v>2059.098288819458</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O5" t="n">
-        <v>2059.098288819458</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1751.572604680641</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>1394.083189806891</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W5" t="n">
-        <v>997.6918401072378</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="X5" t="n">
-        <v>990.0122453153891</v>
+        <v>1197.346929352786</v>
       </c>
       <c r="Y5" t="n">
-        <v>988.7153793106835</v>
+        <v>792.0096593076759</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>51.94486801115937</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>602.6104029955975</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M6" t="n">
-        <v>751.8547856608809</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N6" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>961.4711417263379</v>
+        <v>1009.2747476664</v>
       </c>
       <c r="C7" t="n">
-        <v>789.4985786052539</v>
+        <v>837.3021845453159</v>
       </c>
       <c r="D7" t="n">
-        <v>626.1818057320246</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4746,31 +4746,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>1712.089273982762</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V7" t="n">
-        <v>1430.377806590791</v>
+        <v>1943.199785070405</v>
       </c>
       <c r="W7" t="n">
-        <v>1430.377806590791</v>
+        <v>1668.347381242918</v>
       </c>
       <c r="X7" t="n">
-        <v>1187.813910036596</v>
+        <v>1425.783484688724</v>
       </c>
       <c r="Y7" t="n">
-        <v>961.4711417263379</v>
+        <v>1199.440716378466</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1270.775797585523</v>
+        <v>854.9492380147274</v>
       </c>
       <c r="C8" t="n">
-        <v>1247.915471639227</v>
+        <v>511.1098178163287</v>
       </c>
       <c r="D8" t="n">
-        <v>1228.663254864631</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>802.6863150124886</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>377.5621332018889</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,16 +4807,16 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>407.101683866143</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M8" t="n">
-        <v>667.4947029893171</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N8" t="n">
-        <v>667.4947029893171</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O8" t="n">
         <v>1218.160237973755</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.98568150701</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>2003.98568150701</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W8" t="n">
-        <v>1699.600622673607</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="X8" t="n">
-        <v>1691.921027881758</v>
+        <v>1276.094468310963</v>
       </c>
       <c r="Y8" t="n">
-        <v>1690.624161877053</v>
+        <v>1274.797602306257</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>423.6702648437783</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>423.6702648437783</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>423.6702648437783</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>423.6702648437783</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>490.8953374243588</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>1041.560872408797</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1592.226407393235</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>2142.891942377673</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>2142.891942377673</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>626.2438307690477</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C10" t="n">
-        <v>454.2712676479637</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D10" t="n">
-        <v>454.2712676479637</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E10" t="n">
-        <v>288.0630618008172</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F10" t="n">
-        <v>288.0630618008172</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V10" t="n">
-        <v>1333.826099862795</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W10" t="n">
-        <v>1058.973696035308</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X10" t="n">
-        <v>816.4097994811134</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y10" t="n">
-        <v>816.4097994811134</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063318</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076618</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261618</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409476</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598876</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883245</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623592</v>
       </c>
       <c r="I11" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J11" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2467.904347614084</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596604</v>
       </c>
       <c r="O11" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747416</v>
       </c>
       <c r="P11" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905343</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409527</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291429</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209202</v>
       </c>
       <c r="U11" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805614</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931864</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232211</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399958</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354848</v>
       </c>
     </row>
     <row r="12">
@@ -5108,31 +5108,31 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>249.7325784259149</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G12" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I12" t="n">
         <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473315</v>
       </c>
       <c r="K12" t="n">
-        <v>109.7493563677404</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="L12" t="n">
-        <v>109.7493563677404</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M12" t="n">
-        <v>939.4897558901635</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N12" t="n">
-        <v>939.4897558901635</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O12" t="n">
         <v>1828.971033901635</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>615.9842888225141</v>
+        <v>373.4203922683133</v>
       </c>
       <c r="C13" t="n">
-        <v>575.6239606180499</v>
+        <v>201.4478291472292</v>
       </c>
       <c r="D13" t="n">
-        <v>412.3071877448206</v>
+        <v>201.4478291472292</v>
       </c>
       <c r="E13" t="n">
-        <v>246.0989818976742</v>
+        <v>201.4478291472292</v>
       </c>
       <c r="F13" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G13" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H13" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I13" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358236</v>
       </c>
       <c r="L13" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302442</v>
       </c>
       <c r="M13" t="n">
         <v>1132.196759100495</v>
@@ -5217,34 +5217,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578194</v>
       </c>
       <c r="Q13" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818951</v>
       </c>
       <c r="R13" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818951</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.580693338092</v>
+        <v>2112.580693338086</v>
       </c>
       <c r="T13" t="n">
-        <v>1869.241345563992</v>
+        <v>1869.241345563986</v>
       </c>
       <c r="U13" t="n">
-        <v>1589.056897064296</v>
+        <v>1589.05689706429</v>
       </c>
       <c r="V13" t="n">
-        <v>1307.345429672325</v>
+        <v>1307.345429672319</v>
       </c>
       <c r="W13" t="n">
-        <v>1032.493025844838</v>
+        <v>1032.493025844832</v>
       </c>
       <c r="X13" t="n">
-        <v>1032.493025844838</v>
+        <v>789.9291292906371</v>
       </c>
       <c r="Y13" t="n">
-        <v>806.1502575345799</v>
+        <v>563.586360980379</v>
       </c>
     </row>
     <row r="14">
@@ -5260,22 +5260,22 @@
         <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988745</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883231</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623575</v>
       </c>
       <c r="I14" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J14" t="n">
         <v>464.9061722227241</v>
@@ -5293,31 +5293,31 @@
         <v>3114.325629236558</v>
       </c>
       <c r="O14" t="n">
-        <v>3950.770911629316</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P14" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905343</v>
       </c>
       <c r="Q14" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409527</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291429</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209202</v>
       </c>
       <c r="U14" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805614</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931863</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.60713123221</v>
       </c>
       <c r="X14" t="n">
         <v>3365.887132399956</v>
@@ -5345,37 +5345,37 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>249.7325784259149</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G15" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473315</v>
       </c>
       <c r="K15" t="n">
-        <v>964.4851292537592</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="L15" t="n">
-        <v>964.4851292537592</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="M15" t="n">
-        <v>964.4851292537592</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="N15" t="n">
-        <v>964.4851292537592</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="O15" t="n">
-        <v>964.4851292537592</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="P15" t="n">
-        <v>1680.682846292257</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
         <v>1910.990343986338</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1013.511272808982</v>
+        <v>609.4538236255818</v>
       </c>
       <c r="C16" t="n">
-        <v>1013.511272808982</v>
+        <v>437.4812605044977</v>
       </c>
       <c r="D16" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312683</v>
       </c>
       <c r="E16" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312683</v>
       </c>
       <c r="F16" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G16" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358236</v>
       </c>
       <c r="L16" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302442</v>
       </c>
       <c r="M16" t="n">
         <v>1132.196759100495</v>
@@ -5454,34 +5454,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578194</v>
       </c>
       <c r="Q16" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="R16" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="T16" t="n">
-        <v>1869.241345563992</v>
+        <v>2039.376393044856</v>
       </c>
       <c r="U16" t="n">
-        <v>1869.241345563992</v>
+        <v>1759.19194454516</v>
       </c>
       <c r="V16" t="n">
-        <v>1587.529878172021</v>
+        <v>1477.480477153189</v>
       </c>
       <c r="W16" t="n">
-        <v>1482.417937673434</v>
+        <v>1202.628073325702</v>
       </c>
       <c r="X16" t="n">
-        <v>1239.85404111924</v>
+        <v>1025.962560647906</v>
       </c>
       <c r="Y16" t="n">
-        <v>1013.511272808982</v>
+        <v>799.6197923376476</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063318</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076618</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261618</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988756</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883228</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623575</v>
       </c>
       <c r="I17" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J17" t="n">
         <v>464.9061722227241</v>
@@ -5524,43 +5524,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991805</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478506</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3950.770911629318</v>
       </c>
       <c r="P17" t="n">
-        <v>4935.721337874071</v>
+        <v>4659.050190787246</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291429</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291429</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209202</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805614</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931863</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.60713123221</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399957</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354848</v>
       </c>
     </row>
     <row r="18">
@@ -5582,37 +5582,37 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>249.7325784259149</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G18" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473315</v>
       </c>
       <c r="K18" t="n">
-        <v>374.0002026854196</v>
+        <v>730.647150085061</v>
       </c>
       <c r="L18" t="n">
-        <v>1210.799010768326</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.799010768326</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1013.511272808982</v>
+        <v>446.1370507523524</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312683</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312683</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312683</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I19" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358236</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302442</v>
       </c>
       <c r="M19" t="n">
         <v>1132.196759100495</v>
@@ -5691,34 +5691,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578194</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="S19" t="n">
-        <v>2228.396209932588</v>
+        <v>2185.297351822125</v>
       </c>
       <c r="T19" t="n">
-        <v>1985.056862158488</v>
+        <v>1941.958004048025</v>
       </c>
       <c r="U19" t="n">
-        <v>1704.872413658792</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1704.872413658792</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.020009831305</v>
+        <v>1105.209684328871</v>
       </c>
       <c r="X19" t="n">
-        <v>1430.020009831305</v>
+        <v>862.6457877746763</v>
       </c>
       <c r="Y19" t="n">
-        <v>1203.677241521047</v>
+        <v>636.3030194644182</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063318</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076618</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261618</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409476</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598876</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883228</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623575</v>
       </c>
       <c r="I20" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596604</v>
       </c>
       <c r="O20" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747416</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905343</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409527</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291429</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209202</v>
       </c>
       <c r="U20" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805614</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931864</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232211</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399958</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354848</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>249.7325784259149</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G21" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473315</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.509065974867</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>888.2776948471594</v>
+        <v>373.4203922683178</v>
       </c>
       <c r="C22" t="n">
-        <v>716.3051317260754</v>
+        <v>201.4478291472337</v>
       </c>
       <c r="D22" t="n">
-        <v>716.3051317260754</v>
+        <v>201.4478291472337</v>
       </c>
       <c r="E22" t="n">
-        <v>550.0969258789289</v>
+        <v>201.4478291472337</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>201.4478291472337</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358236</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302442</v>
       </c>
       <c r="M22" t="n">
         <v>1132.196759100495</v>
@@ -5928,34 +5928,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578194</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338091</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563991</v>
       </c>
       <c r="U22" t="n">
-        <v>1822.202732251165</v>
+        <v>1589.056897064295</v>
       </c>
       <c r="V22" t="n">
-        <v>1822.202732251165</v>
+        <v>1307.345429672324</v>
       </c>
       <c r="W22" t="n">
-        <v>1547.350328423678</v>
+        <v>1032.493025844837</v>
       </c>
       <c r="X22" t="n">
-        <v>1304.786431869483</v>
+        <v>789.9291292906416</v>
       </c>
       <c r="Y22" t="n">
-        <v>1078.443663559225</v>
+        <v>563.5863609803836</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5021.974329743787</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6065,22 +6065,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O24" t="n">
         <v>1910.990343986338</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1013.511272808982</v>
+        <v>373.4203922683178</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>201.4478291472337</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>201.4478291472337</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>201.4478291472337</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358235</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302442</v>
       </c>
       <c r="M25" t="n">
         <v>1132.196759100495</v>
@@ -6165,34 +6165,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578194</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="S25" t="n">
-        <v>2229.923228824863</v>
+        <v>2112.580693338091</v>
       </c>
       <c r="T25" t="n">
-        <v>1986.583881050763</v>
+        <v>1869.241345563991</v>
       </c>
       <c r="U25" t="n">
-        <v>1986.583881050763</v>
+        <v>1589.056897064295</v>
       </c>
       <c r="V25" t="n">
-        <v>1704.872413658792</v>
+        <v>1307.345429672324</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.020009831305</v>
+        <v>1032.493025844837</v>
       </c>
       <c r="X25" t="n">
-        <v>1430.020009831305</v>
+        <v>789.9291292906416</v>
       </c>
       <c r="Y25" t="n">
-        <v>1203.677241521047</v>
+        <v>563.5863609803836</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P26" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,25 +6302,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>939.1015214887346</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M27" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1992.33777973203</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1712.153331232334</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1601.992572952389</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1601.992572952389</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>409.5807935972459</v>
       </c>
       <c r="K29" t="n">
-        <v>464.9061722227241</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="L29" t="n">
-        <v>1394.531219842001</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M29" t="n">
-        <v>2398.817321261059</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N29" t="n">
-        <v>3375.06837974776</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O29" t="n">
-        <v>4220.213029898572</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P29" t="n">
-        <v>4928.4923090565</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>941.9189991784958</v>
+        <v>612.3452565994986</v>
       </c>
       <c r="C31" t="n">
-        <v>769.9464360574118</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D31" t="n">
-        <v>606.6296631841825</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E31" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1992.33777973203</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1712.153331232334</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1600.991632755014</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1600.991632755014</v>
+        <v>1045.075121865759</v>
       </c>
       <c r="X31" t="n">
-        <v>1358.427736200819</v>
+        <v>802.5112253115642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1132.084967890562</v>
+        <v>802.5112253115642</v>
       </c>
     </row>
     <row r="32">
@@ -6703,19 +6703,19 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>786.1869982294937</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L32" t="n">
-        <v>1715.81204584877</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M32" t="n">
-        <v>2720.098147267829</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
-        <v>3696.34920575453</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
         <v>4541.493855905342</v>
@@ -6776,25 +6776,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>357.5299206506891</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
         <v>1446.844867123559</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1013.511272808982</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>1704.872413658792</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>1704.872413658792</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.020009831305</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1430.020009831305</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1203.677241521047</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7013,28 +7013,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="L36" t="n">
-        <v>138.8060889717951</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.79262694784</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="N36" t="n">
-        <v>1194.79262694784</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O36" t="n">
-        <v>1194.79262694784</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4017.903765402536</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>3845.931202281452</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>3682.614429408222</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>4654.622661723635</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>4654.622661723635</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>4379.770257896148</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>4208.069734114601</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>4208.069734114601</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7156,64 +7156,64 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1463.618246195026</v>
+        <v>1983.783825177543</v>
       </c>
       <c r="M38" t="n">
-        <v>2467.904347614084</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N38" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O38" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P38" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399956</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>985.454412532011</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>813.481849410927</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7332,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>985.454412532011</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.454412532011</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
         <v>2113.800768076616</v>
@@ -7411,7 +7411,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
@@ -7432,31 +7432,31 @@
         <v>4935.721337874071</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M42" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N42" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
         <v>1910.990343986338</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>875.4305977324519</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C43" t="n">
-        <v>703.4580346113679</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D43" t="n">
-        <v>540.1412617381386</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E43" t="n">
-        <v>373.9330558909921</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F43" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7596,25 +7596,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U43" t="n">
-        <v>2091.067102528428</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V43" t="n">
-        <v>1809.355635136457</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W43" t="n">
-        <v>1534.50323130897</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X43" t="n">
-        <v>1291.939334754775</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y43" t="n">
-        <v>1065.596566444518</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="44">
@@ -7648,37 +7648,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L44" t="n">
-        <v>1125.089101572745</v>
+        <v>1125.089101572744</v>
       </c>
       <c r="M44" t="n">
-        <v>2129.375202991803</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N44" t="n">
-        <v>3105.626261478504</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O44" t="n">
-        <v>3950.770911629316</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P44" t="n">
-        <v>4659.050190787244</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
@@ -7724,28 +7724,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>109.7493563677404</v>
+        <v>610.0460590406528</v>
       </c>
       <c r="L45" t="n">
-        <v>109.7493563677404</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M45" t="n">
-        <v>821.6753975134684</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N45" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O45" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P45" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
         <v>1910.990343986338</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.7597400424195</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>616.7597400424195</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>616.7597400424195</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>450.551534195273</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>278.6897599698334</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>112.4327902640655</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>112.4327902640655</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7833,25 +7833,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T46" t="n">
-        <v>2112.580693338092</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>1832.396244838396</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>1550.684777446425</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>1275.832373618938</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>1033.268477064743</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>806.9257087544852</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7978,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>404.3352739792661</v>
+        <v>519.5412919487761</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0887335865908</v>
+        <v>40.61659560001124</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>521.056313988414</v>
+        <v>521.0563139884127</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
@@ -8060,25 +8060,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.1759249873</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681975</v>
+        <v>506.2917778681963</v>
       </c>
       <c r="M3" t="n">
-        <v>308.3542601149646</v>
+        <v>323.2971362560264</v>
       </c>
       <c r="N3" t="n">
-        <v>505.1197193675096</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587966</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8145,7 +8145,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>130.8354367406538</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8154,7 +8154,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>29.0381883674027</v>
       </c>
       <c r="Q4" t="n">
         <v>152.9025226039384</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P5" t="n">
-        <v>86.31943126580316</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,25 +8294,25 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>173.8486821944324</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>453.880834648017</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,19 +8455,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>301.3352940721928</v>
       </c>
       <c r="M8" t="n">
-        <v>300.4545145390017</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>593.8031749258255</v>
@@ -8531,28 +8531,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>91.000894230086</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8698,10 +8698,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>765.1769988726438</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406117</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8710,7 +8710,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8768,22 +8768,22 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>861.2183961915432</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>41.78793084289303</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8941,16 +8941,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>882.2851839951743</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>625.477964353639</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
@@ -9023,10 +9023,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>501.4810380814831</v>
       </c>
       <c r="Q15" t="n">
-        <v>255.3808743436059</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9172,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>56.9622479239827</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>217.3512730059682</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9239,31 +9239,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>375.1268140734641</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>728.607001161029</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9400,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406117</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>728.3675687028222</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9491,16 +9491,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>949.8342934347922</v>
+        <v>501.0532250901961</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9661,7 +9661,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>129.135014084331</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,25 +9713,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>73.174855016566</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9889,16 +9889,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>611.7910214708227</v>
       </c>
       <c r="Q26" t="n">
-        <v>464.8736204150517</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,19 +9950,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>867.7664080100944</v>
+        <v>247.6270611911683</v>
       </c>
       <c r="M27" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
@@ -9971,7 +9971,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>339.8018586688364</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10132,10 +10132,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>105.9095497086638</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>360.2906876703342</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10366,7 +10366,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
@@ -10424,28 +10424,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>280.9020403556215</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q33" t="n">
         <v>491.5808533018869</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,7 +10594,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>304.4845953330648</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,31 +10661,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>200.0929141007635</v>
       </c>
       <c r="L36" t="n">
-        <v>59.38718324550895</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10825,16 +10825,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>105.5494758988752</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>849.7962292804204</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10843,7 +10843,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10913,19 +10913,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>98.60750039798609</v>
+        <v>98.60750039798516</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11135,31 +11135,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11302,7 +11302,7 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>705.1634862205228</v>
+        <v>705.1634862205219</v>
       </c>
       <c r="M44" t="n">
         <v>1051.861668373228</v>
@@ -11372,22 +11372,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>535.2713001311357</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>742.2139937908412</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -11396,7 +11396,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>130.2961125674535</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.6836051444971</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.5461237886751</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>71.98949189919873</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5944000087103</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069273</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>98.77088257712688</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969869</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.5461237886751</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087103</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069273</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712688</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969869</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060566</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>168.0430586956118</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>65.23940003763505</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.6836051444971</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.5461237886751</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087103</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069273</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712688</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>161.2255886082495</v>
+        <v>71.98949189919412</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>161.6836051444971</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.5461237886751</v>
       </c>
       <c r="F22" t="n">
-        <v>132.55047452758</v>
+        <v>170.1431564831853</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>66.44073542471924</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069273</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712688</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969869</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.6836051444971</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.5461237886751</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>71.98949189919419</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087103</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069273</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712688</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>116.1691101319037</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>169.8352020209057</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>168.8442712255046</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>12.45627506071196</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>161.2255886082497</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>71.9894918991923</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>70.15473904492188</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>99.25824658694708</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>71.9894918991923</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25806,7 +25806,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>87.65045210707541</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>88.74210648747216</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>505352.3912437892</v>
+        <v>505352.3912437891</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>521204.8894998782</v>
+        <v>521204.889499878</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>521204.8894998781</v>
+        <v>521204.8894998782</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>521204.8894998782</v>
+        <v>521204.889499878</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>521204.8894998782</v>
+        <v>521204.889499878</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>521204.8894998782</v>
+        <v>521204.8894998781</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>521204.8894998782</v>
+        <v>521204.8894998781</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>553320.534610605</v>
+      </c>
+      <c r="C2" t="n">
+        <v>553320.5346106051</v>
+      </c>
+      <c r="D2" t="n">
         <v>553320.5346106048</v>
       </c>
-      <c r="C2" t="n">
-        <v>553320.534610605</v>
-      </c>
-      <c r="D2" t="n">
-        <v>553320.5346106049</v>
-      </c>
       <c r="E2" t="n">
-        <v>533928.8829805749</v>
+        <v>533928.8829805752</v>
       </c>
       <c r="F2" t="n">
+        <v>533928.882980575</v>
+      </c>
+      <c r="G2" t="n">
+        <v>533928.882980575</v>
+      </c>
+      <c r="H2" t="n">
+        <v>533928.8829805752</v>
+      </c>
+      <c r="I2" t="n">
         <v>533928.8829805751</v>
       </c>
-      <c r="G2" t="n">
-        <v>533928.8829805744</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>533928.8829805746</v>
       </c>
-      <c r="I2" t="n">
-        <v>533928.8829805749</v>
-      </c>
-      <c r="J2" t="n">
-        <v>533928.8829805749</v>
-      </c>
       <c r="K2" t="n">
-        <v>533928.8829805749</v>
+        <v>533928.8829805747</v>
       </c>
       <c r="L2" t="n">
         <v>533928.8829805749</v>
       </c>
       <c r="M2" t="n">
-        <v>533928.8829805749</v>
+        <v>533928.8829805745</v>
       </c>
       <c r="N2" t="n">
-        <v>533928.8829805749</v>
+        <v>533928.8829805747</v>
       </c>
       <c r="O2" t="n">
-        <v>533928.8829805747</v>
+        <v>533928.882980575</v>
       </c>
       <c r="P2" t="n">
-        <v>533928.8829805747</v>
+        <v>533928.8829805745</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695912</v>
+        <v>162124.6960695908</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361224</v>
+        <v>23406.83367361263</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802888</v>
+        <v>126577.2685802885</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701981</v>
+        <v>18646.60035702012</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195487.3209125818</v>
+        <v>195487.320912582</v>
       </c>
       <c r="C4" t="n">
         <v>182621.065515899</v>
       </c>
       <c r="D4" t="n">
-        <v>182621.0655158991</v>
+        <v>182621.065515899</v>
       </c>
       <c r="E4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986357</v>
       </c>
       <c r="F4" t="n">
+        <v>72380.62724986362</v>
+      </c>
+      <c r="G4" t="n">
+        <v>72380.62724986357</v>
+      </c>
+      <c r="H4" t="n">
+        <v>72380.62724986355</v>
+      </c>
+      <c r="I4" t="n">
+        <v>72380.6272498637</v>
+      </c>
+      <c r="J4" t="n">
         <v>72380.62724986371</v>
-      </c>
-      <c r="G4" t="n">
-        <v>72380.62724986373</v>
-      </c>
-      <c r="H4" t="n">
-        <v>72380.62724986367</v>
-      </c>
-      <c r="I4" t="n">
-        <v>72380.62724986371</v>
-      </c>
-      <c r="J4" t="n">
-        <v>72380.62724986373</v>
       </c>
       <c r="K4" t="n">
         <v>72380.62724986373</v>
       </c>
       <c r="L4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="M4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="N4" t="n">
-        <v>72380.62724986365</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="O4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="P4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.6272498637</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216125</v>
+        <v>63041.22282216117</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,19 +26478,19 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.0621884297</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.0621884297</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.0621884297</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.0621884297</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
         <v>77750.06218842969</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132667.2948062705</v>
+        <v>132667.2948062711</v>
       </c>
       <c r="C6" t="n">
-        <v>279846.3843836656</v>
+        <v>279846.3843836653</v>
       </c>
       <c r="D6" t="n">
-        <v>303253.2180572777</v>
+        <v>303253.2180572776</v>
       </c>
       <c r="E6" t="n">
-        <v>168058.8369856409</v>
+        <v>168007.806323457</v>
       </c>
       <c r="F6" t="n">
-        <v>383798.1935422817</v>
+        <v>383747.1628800973</v>
       </c>
       <c r="G6" t="n">
-        <v>383798.193542281</v>
+        <v>383747.1628800974</v>
       </c>
       <c r="H6" t="n">
-        <v>383798.1935422813</v>
+        <v>383747.1628800976</v>
       </c>
       <c r="I6" t="n">
-        <v>383798.1935422815</v>
+        <v>383747.1628800976</v>
       </c>
       <c r="J6" t="n">
-        <v>257220.9249619927</v>
+        <v>257169.8942998084</v>
       </c>
       <c r="K6" t="n">
-        <v>365151.5931852616</v>
+        <v>365100.5625230769</v>
       </c>
       <c r="L6" t="n">
-        <v>383798.1935422815</v>
+        <v>383747.1628800972</v>
       </c>
       <c r="M6" t="n">
-        <v>203734.3220871138</v>
+        <v>203683.2914249291</v>
       </c>
       <c r="N6" t="n">
-        <v>383798.1935422816</v>
+        <v>383747.1628800971</v>
       </c>
       <c r="O6" t="n">
-        <v>383798.1935422813</v>
+        <v>383747.1628800973</v>
       </c>
       <c r="P6" t="n">
-        <v>383798.1935422813</v>
+        <v>383747.1628800969</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539667</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539667</v>
       </c>
       <c r="C4" t="n">
-        <v>72.4511219616262</v>
+        <v>72.45112196162739</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572631</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539667</v>
       </c>
       <c r="K4" t="n">
-        <v>72.4511219616262</v>
+        <v>72.45112196162739</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572629</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539667</v>
       </c>
       <c r="K4" t="n">
-        <v>72.4511219616262</v>
+        <v>72.45112196162739</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572631</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>31.9998264966506</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>287.0507283601262</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27542,16 +27542,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>101.6140360115398</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -27587,13 +27587,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>176.2645576631305</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>160.1907602590138</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>109.2060354370383</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>18.44967133088687</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>225.5967238019952</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>82.2306966904182</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
         <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>91.08622795758805</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>130.0105341412796</v>
+        <v>65.01789851058612</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-4.583541945526323e-12</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.454652797752011e-12</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.818989403545856e-12</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
     </row>
     <row r="23">
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>368.5706731844568</v>
+        <v>483.7766911539667</v>
       </c>
       <c r="L2" t="n">
-        <v>483.7766911539679</v>
+        <v>2.304553167388317</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539667</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.7766911539667</v>
       </c>
       <c r="L3" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539667</v>
       </c>
       <c r="M3" t="n">
-        <v>285.2574796026366</v>
+        <v>300.2003557436984</v>
       </c>
       <c r="N3" t="n">
-        <v>483.7766911539679</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>483.7766911539679</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34865,7 +34865,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>108.2599968491679</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34874,7 +34874,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>6.657387709416218</v>
       </c>
       <c r="Q4" t="n">
         <v>128.2829598391535</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="P5" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>150.7519016821045</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="M8" t="n">
-        <v>263.0232516395698</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>556.2278131155941</v>
@@ -35251,28 +35251,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>67.90411371775802</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35418,10 +35418,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>727.745735973212</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061656</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35430,7 +35430,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35488,22 +35488,22 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>838.1216156792152</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>20.44490262935137</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127062</v>
       </c>
       <c r="K13" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937748</v>
       </c>
       <c r="L13" t="n">
-        <v>358.2720417115361</v>
+        <v>358.272041711536</v>
       </c>
       <c r="M13" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366169</v>
       </c>
       <c r="N13" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404401</v>
       </c>
       <c r="O13" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977404</v>
       </c>
       <c r="P13" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968696</v>
       </c>
       <c r="Q13" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391489</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35661,16 +35661,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>844.8942246391501</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>587.9026025434077</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
@@ -35743,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>479.7101968766544</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.6338360546274</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127062</v>
       </c>
       <c r="K16" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937748</v>
       </c>
       <c r="L16" t="n">
-        <v>358.2720417115361</v>
+        <v>358.272041711536</v>
       </c>
       <c r="M16" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366169</v>
       </c>
       <c r="N16" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404401</v>
       </c>
       <c r="O16" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977404</v>
       </c>
       <c r="P16" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968696</v>
       </c>
       <c r="Q16" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391534</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502455089</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>181.2265984013702</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>352.7275802401308</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>707.2639729474873</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127062</v>
       </c>
       <c r="K19" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937748</v>
       </c>
       <c r="L19" t="n">
-        <v>358.2720417115361</v>
+        <v>358.272041711536</v>
       </c>
       <c r="M19" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366169</v>
       </c>
       <c r="N19" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404401</v>
       </c>
       <c r="O19" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977404</v>
       </c>
       <c r="P19" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968696</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391534</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061656</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>690.7922068925909</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,16 +36211,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>928.4912652212506</v>
+        <v>479.7101968766544</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127062</v>
       </c>
       <c r="K22" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937748</v>
       </c>
       <c r="L22" t="n">
-        <v>358.2720417115361</v>
+        <v>358.272041711536</v>
       </c>
       <c r="M22" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366169</v>
       </c>
       <c r="N22" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404401</v>
       </c>
       <c r="O22" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977404</v>
       </c>
       <c r="P22" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968696</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391534</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36381,7 +36381,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>94.1023641895345</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>50.07807450423802</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127062</v>
       </c>
       <c r="K25" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937748</v>
       </c>
       <c r="L25" t="n">
-        <v>358.2720417115361</v>
+        <v>358.272041711536</v>
       </c>
       <c r="M25" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366169</v>
       </c>
       <c r="N25" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404401</v>
       </c>
       <c r="O25" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977404</v>
       </c>
       <c r="P25" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968696</v>
       </c>
       <c r="Q25" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36609,16 +36609,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>574.2156596605913</v>
       </c>
       <c r="Q26" t="n">
-        <v>428.7489458104537</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2513212958648</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="M27" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36691,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>310.3818991832499</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36852,10 +36852,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>69.78487510406572</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,10 +37071,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>324.5260868755249</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37086,7 +37086,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8052598432935</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q33" t="n">
         <v>468.8338150129084</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,7 +37314,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>267.053332433633</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>177.6936802674302</v>
       </c>
       <c r="L36" t="n">
-        <v>36.87209653127939</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,16 +37545,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>69.78487510406583</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>811.4841868477976</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37563,7 +37563,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>62.48282579338804</v>
+        <v>62.48282579338712</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>666.8514437878999</v>
+        <v>666.851443787899</v>
       </c>
       <c r="M44" t="n">
         <v>1014.430405473796</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>512.8720662978023</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>719.1172132785132</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
